--- a/doc/timelines.xlsx
+++ b/doc/timelines.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sk/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sk/Documents/GitRepository/CS436_Big_Data_Systems/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0A2AB2B-BB4A-0A49-A0BE-BEDC406BDC97}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96077D45-5596-9445-AC2A-CA2B51A290C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16800" xr2:uid="{3E221795-B757-5B4C-9D38-726E84879C46}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>March</t>
   </si>
@@ -45,18 +45,9 @@
     <t>Activity</t>
   </si>
   <si>
-    <t>Installations and SetUp</t>
-  </si>
-  <si>
     <t>Performing MR on sample data set in Local machine</t>
   </si>
   <si>
-    <t>Scripting to achieve Goal</t>
-  </si>
-  <si>
-    <t>Performing experiment on cluster</t>
-  </si>
-  <si>
     <t>Mid-Term</t>
   </si>
   <si>
@@ -85,6 +76,18 @@
   </si>
   <si>
     <t>Sowmya/Evan</t>
+  </si>
+  <si>
+    <t>Installing HDFS, experimenting with data distribution on cluster</t>
+  </si>
+  <si>
+    <t>Reseraching about Page Rank algorithm and its implemetations</t>
+  </si>
+  <si>
+    <t>Installations and SetUp, getting the sparks running on local machine</t>
+  </si>
+  <si>
+    <t>Getting the the algorithm running on the cluster on the entire data set</t>
   </si>
 </sst>
 </file>
@@ -126,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -258,15 +261,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -326,95 +320,103 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C297FC-1299-3245-88EB-0E5878B8A922}">
-  <dimension ref="C6:M22"/>
+  <dimension ref="C6:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -752,160 +754,173 @@
   <sheetData>
     <row r="6" spans="4:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="4:13" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="1" t="s">
+      <c r="F7" s="33"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="1" t="s">
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="8" spans="4:13" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="28"/>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="I8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="27"/>
+    </row>
+    <row r="10" spans="4:13" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="9" t="s">
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="28"/>
+    </row>
+    <row r="11" spans="4:13" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="H11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="I11" s="29"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
     </row>
-    <row r="9" spans="4:13" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="33" t="s">
+    <row r="12" spans="4:13" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="17"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="10"/>
     </row>
-    <row r="10" spans="4:13" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="21"/>
-    </row>
-    <row r="11" spans="4:13" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="22"/>
-    </row>
-    <row r="12" spans="4:13" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="23"/>
-      <c r="M12" s="24"/>
-    </row>
-    <row r="13" spans="4:13" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="18"/>
+    <row r="13" spans="4:13" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="36"/>
+      <c r="M13" s="10"/>
     </row>
     <row r="14" spans="4:13" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="35" t="s">
-        <v>17</v>
-      </c>
+      <c r="D14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="4:13" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="4:13" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="16" spans="4:13" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -913,19 +928,20 @@
     <row r="20" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E10:E14"/>
-    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="F11:F15"/>
     <mergeCell ref="F9:M9"/>
     <mergeCell ref="G10:M10"/>
     <mergeCell ref="I11:M11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="H7:K7"/>
   </mergeCells>
